--- a/data/trans_orig/P52_2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P52_2-Dificultad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>60149</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>48409</v>
+        <v>48128</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72568</v>
+        <v>71470</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4541654003830984</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3655160095582358</v>
+        <v>0.3633938311304616</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5479388618970881</v>
+        <v>0.5396465957816704</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -763,19 +763,19 @@
         <v>26311</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19173</v>
+        <v>19370</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32697</v>
+        <v>33218</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5833328193356713</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4250770005346176</v>
+        <v>0.4294613024825639</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7249303224059768</v>
+        <v>0.7364749795562391</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>81</v>
@@ -784,19 +784,19 @@
         <v>86460</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72378</v>
+        <v>72151</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>100565</v>
+        <v>100267</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4869796359175063</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4076621766848119</v>
+        <v>0.4063868344178725</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5664269707780483</v>
+        <v>0.5647484666956849</v>
       </c>
     </row>
     <row r="5">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5580</v>
+        <v>4641</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02516616994104017</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1237054845634244</v>
+        <v>0.1029022341653133</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6564</v>
+        <v>6730</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006393319883920906</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03697211693471492</v>
+        <v>0.03790904426756115</v>
       </c>
     </row>
     <row r="6">
@@ -876,19 +876,19 @@
         <v>2892</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>938</v>
+        <v>914</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7822</v>
+        <v>7778</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02183842284407</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0070819821778129</v>
+        <v>0.006903693804013652</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0590635276908355</v>
+        <v>0.05872973471910817</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7010</v>
+        <v>6186</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04393238561438518</v>
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1554090430846833</v>
+        <v>0.1371460438833347</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -918,19 +918,19 @@
         <v>4874</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1777</v>
+        <v>1908</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10725</v>
+        <v>11080</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02745126626939044</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01000844677370268</v>
+        <v>0.01074742009976377</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06041047605911836</v>
+        <v>0.06240603907655647</v>
       </c>
     </row>
     <row r="7">
@@ -947,19 +947,19 @@
         <v>69398</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57197</v>
+        <v>57761</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80716</v>
+        <v>80740</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5239961767728316</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4318723958766664</v>
+        <v>0.4361355406531878</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6094566793590176</v>
+        <v>0.6096379040889049</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -968,19 +968,19 @@
         <v>15677</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9899</v>
+        <v>9597</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22369</v>
+        <v>23005</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3475686251089034</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2194814125391717</v>
+        <v>0.2127812402747846</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4959419279438943</v>
+        <v>0.5100334104575114</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -989,19 +989,19 @@
         <v>85074</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71775</v>
+        <v>71339</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>99485</v>
+        <v>99871</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4791757779291824</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4042704972873816</v>
+        <v>0.4018121183975641</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5603419501769571</v>
+        <v>0.5625150793666847</v>
       </c>
     </row>
     <row r="8">
@@ -1093,19 +1093,19 @@
         <v>71222</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>58820</v>
+        <v>57818</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>83731</v>
+        <v>82564</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5111852043958829</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.422169166813944</v>
+        <v>0.414979233071104</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6009598535040427</v>
+        <v>0.592588854469248</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>38</v>
@@ -1114,19 +1114,19 @@
         <v>39249</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31844</v>
+        <v>31120</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>46350</v>
+        <v>45479</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.671926009115525</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5451541640430019</v>
+        <v>0.5327719516917958</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7934957017318512</v>
+        <v>0.7785959742987915</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>103</v>
@@ -1135,19 +1135,19 @@
         <v>110471</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>95261</v>
+        <v>95994</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>124823</v>
+        <v>125899</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5586677120825937</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4817498264870875</v>
+        <v>0.4854575975522353</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6312470352600964</v>
+        <v>0.6366888702432396</v>
       </c>
     </row>
     <row r="10">
@@ -1164,19 +1164,19 @@
         <v>2958</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8092</v>
+        <v>7862</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02122942880083301</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006795786435377691</v>
+        <v>0.006714518088489884</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05807716015288928</v>
+        <v>0.05642950414640566</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1198,19 +1198,19 @@
         <v>2958</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7943</v>
+        <v>8261</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01495829859230758</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004702935806982696</v>
+        <v>0.004747026476934151</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04016737491523019</v>
+        <v>0.04177950057561343</v>
       </c>
     </row>
     <row r="11">
@@ -1227,19 +1227,19 @@
         <v>5659</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1878</v>
+        <v>1415</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14889</v>
+        <v>13550</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04061779820092307</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01347663158135843</v>
+        <v>0.01015870894550557</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1068609670303345</v>
+        <v>0.09725138223479049</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1248,19 +1248,19 @@
         <v>3107</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8164</v>
+        <v>8298</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05319453647130137</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01549155056289691</v>
+        <v>0.01548382253290111</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1397599366155153</v>
+        <v>0.1420660960221377</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1269,19 +1269,19 @@
         <v>8766</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3893</v>
+        <v>3245</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18565</v>
+        <v>17493</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04433294117683735</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0196886870012734</v>
+        <v>0.01640972195868361</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09388596234995462</v>
+        <v>0.08846289488896544</v>
       </c>
     </row>
     <row r="12">
@@ -1298,19 +1298,19 @@
         <v>59489</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>46903</v>
+        <v>47939</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>71636</v>
+        <v>72719</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4269675686023611</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3366388297781975</v>
+        <v>0.3440717979932216</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.514156712795715</v>
+        <v>0.5219293455690802</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -1319,19 +1319,19 @@
         <v>16056</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9760</v>
+        <v>9826</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23815</v>
+        <v>23526</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2748794544131736</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1670863739859417</v>
+        <v>0.1682243924706113</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4077102582736394</v>
+        <v>0.4027525810418218</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>72</v>
@@ -1340,19 +1340,19 @@
         <v>75545</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>62737</v>
+        <v>61873</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>90828</v>
+        <v>89768</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3820410481482613</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.317271181067385</v>
+        <v>0.3129019724389976</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4593321048606895</v>
+        <v>0.4539695830683174</v>
       </c>
     </row>
     <row r="13">
@@ -1444,19 +1444,19 @@
         <v>47992</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37508</v>
+        <v>37751</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58759</v>
+        <v>59496</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3703813712541584</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.289468127518589</v>
+        <v>0.2913448519735246</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4534743121714804</v>
+        <v>0.4591653251263783</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -1465,19 +1465,19 @@
         <v>18446</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12042</v>
+        <v>12106</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24674</v>
+        <v>25109</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4272123000313511</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2788980460776878</v>
+        <v>0.2803820524438639</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5714562933073807</v>
+        <v>0.5815337493674683</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>65</v>
@@ -1486,19 +1486,19 @@
         <v>66438</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>53273</v>
+        <v>54797</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>78581</v>
+        <v>80025</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3845857695867492</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3083746162551446</v>
+        <v>0.3172011964174521</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4548743354602161</v>
+        <v>0.4632337708841655</v>
       </c>
     </row>
     <row r="15">
@@ -1515,19 +1515,19 @@
         <v>2986</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8750</v>
+        <v>8154</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02304473074549503</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.006903185675164685</v>
+        <v>0.006935714334280764</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06752929195266001</v>
+        <v>0.06292729192883043</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -1536,19 +1536,19 @@
         <v>2944</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7872</v>
+        <v>7958</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06818563350296929</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02149529063570563</v>
+        <v>0.02122857301891313</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1823237016331142</v>
+        <v>0.184309981158217</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -1557,19 +1557,19 @@
         <v>5930</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2090</v>
+        <v>2612</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12761</v>
+        <v>12055</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03432730834287607</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01209572460154144</v>
+        <v>0.01512179863435016</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07387013368922442</v>
+        <v>0.06978418961256078</v>
       </c>
     </row>
     <row r="16">
@@ -1586,19 +1586,19 @@
         <v>5929</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1961</v>
+        <v>1858</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13734</v>
+        <v>12779</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04575640240567157</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01513624778944802</v>
+        <v>0.01433541401455812</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1059942499789883</v>
+        <v>0.09862436155265532</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5616</v>
+        <v>4985</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02278780040278002</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.130056432706879</v>
+        <v>0.1154603485064672</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -1628,19 +1628,19 @@
         <v>6913</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2819</v>
+        <v>2941</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15457</v>
+        <v>15434</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04001559930757496</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0163191901708968</v>
+        <v>0.0170235626031012</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08947744287475233</v>
+        <v>0.08933933746792166</v>
       </c>
     </row>
     <row r="17">
@@ -1657,19 +1657,19 @@
         <v>72668</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>60799</v>
+        <v>61283</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>83990</v>
+        <v>84472</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.560817495594675</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4692184457345377</v>
+        <v>0.4729567820253856</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6481925835826879</v>
+        <v>0.6519169758092571</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -1678,19 +1678,19 @@
         <v>20804</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14283</v>
+        <v>13756</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26876</v>
+        <v>27587</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4818142660628996</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3308048357960224</v>
+        <v>0.3185908373195567</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.622447796506461</v>
+        <v>0.6389084791214917</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>87</v>
@@ -1699,19 +1699,19 @@
         <v>93472</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>79554</v>
+        <v>80664</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>106678</v>
+        <v>106925</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5410713227627998</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4605061620299639</v>
+        <v>0.4669344737914948</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6175182619015658</v>
+        <v>0.6189454192065417</v>
       </c>
     </row>
     <row r="18">
@@ -1803,19 +1803,19 @@
         <v>55142</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43646</v>
+        <v>43745</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67097</v>
+        <v>66734</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4711716582467385</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3729463363866862</v>
+        <v>0.373790227185251</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5733299828321602</v>
+        <v>0.5702238587810509</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -1824,19 +1824,19 @@
         <v>21422</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14098</v>
+        <v>14864</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27372</v>
+        <v>27717</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5399117211808676</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3553375024335668</v>
+        <v>0.3746329439093167</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6899005104486091</v>
+        <v>0.6985808109777614</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>69</v>
@@ -1845,19 +1845,19 @@
         <v>76563</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>63771</v>
+        <v>63008</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>91007</v>
+        <v>88921</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4885755740287653</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4069493394104472</v>
+        <v>0.4020756736996848</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5807516718491452</v>
+        <v>0.5674373795166007</v>
       </c>
     </row>
     <row r="20">
@@ -1874,19 +1874,19 @@
         <v>2825</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7800</v>
+        <v>8601</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02413963983034629</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.007829066324188384</v>
+        <v>0.00769976099811596</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06665259551291783</v>
+        <v>0.0734934539243401</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6752</v>
+        <v>6850</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05585383289869888</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1701754148066751</v>
+        <v>0.1726531155013195</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1916,19 +1916,19 @@
         <v>5041</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1866</v>
+        <v>1880</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11728</v>
+        <v>12093</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03216918070791951</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01190563077022152</v>
+        <v>0.01199543809295806</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07484163633811911</v>
+        <v>0.07716896285939288</v>
       </c>
     </row>
     <row r="21">
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7234</v>
+        <v>7602</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01831120350570827</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06181350452132909</v>
+        <v>0.06495767863843077</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8035</v>
+        <v>9194</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04829448371626409</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2025270567518993</v>
+        <v>0.2317220708699184</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -1987,19 +1987,19 @@
         <v>4059</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>12715</v>
+        <v>12253</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02590250414436886</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005668392261525265</v>
+        <v>0.005786042839991592</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08113652886398214</v>
+        <v>0.07818871468482273</v>
       </c>
     </row>
     <row r="22">
@@ -2016,19 +2016,19 @@
         <v>56921</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44438</v>
+        <v>45455</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>68203</v>
+        <v>68030</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.486377498417207</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3797099044834464</v>
+        <v>0.3884018261188477</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5827810019767508</v>
+        <v>0.5813021416422347</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2037,19 +2037,19 @@
         <v>14122</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8287</v>
+        <v>8518</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21035</v>
+        <v>20863</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3559399622041694</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2088676380958202</v>
+        <v>0.2146808018523281</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5301756053804284</v>
+        <v>0.5258340587580701</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -2058,19 +2058,19 @@
         <v>71043</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56297</v>
+        <v>58415</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>83801</v>
+        <v>84757</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4533527411189464</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3592518381330844</v>
+        <v>0.3727658289063112</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5347679266155311</v>
+        <v>0.5408639491741464</v>
       </c>
     </row>
     <row r="23">
@@ -2162,19 +2162,19 @@
         <v>234505</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>211117</v>
+        <v>210854</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>257946</v>
+        <v>257416</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4523875622797082</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4072692334788663</v>
+        <v>0.4067617022731975</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4976084968784326</v>
+        <v>0.4965846594482166</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>100</v>
@@ -2183,19 +2183,19 @@
         <v>105426</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>91442</v>
+        <v>90998</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>119146</v>
+        <v>119879</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5656859538855671</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4906519616421599</v>
+        <v>0.4882664780557959</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6392999507349663</v>
+        <v>0.6432352071205067</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>318</v>
@@ -2204,19 +2204,19 @@
         <v>339931</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>311672</v>
+        <v>312204</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>367593</v>
+        <v>367831</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4823493840401804</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4422510765632314</v>
+        <v>0.4430053948129451</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5216001184218737</v>
+        <v>0.5219378303594006</v>
       </c>
     </row>
     <row r="25">
@@ -2233,19 +2233,19 @@
         <v>8769</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3966</v>
+        <v>4660</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15738</v>
+        <v>16581</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01691630606887296</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.007650551990691533</v>
+        <v>0.008990435443852605</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03035979061856815</v>
+        <v>0.0319859626349013</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2254,19 +2254,19 @@
         <v>6295</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2194</v>
+        <v>2623</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12654</v>
+        <v>13763</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.033778328893069</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01177008400198287</v>
+        <v>0.0140716728608578</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06789742279267928</v>
+        <v>0.07384921069521141</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>15</v>
@@ -2275,19 +2275,19 @@
         <v>15064</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8551</v>
+        <v>8908</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>24463</v>
+        <v>24312</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02137547724702276</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01213311782322819</v>
+        <v>0.01264077505515006</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03471190544186257</v>
+        <v>0.03449844659701595</v>
       </c>
     </row>
     <row r="26">
@@ -2304,19 +2304,19 @@
         <v>16623</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8674</v>
+        <v>9729</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26877</v>
+        <v>27589</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03206825779872045</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01673220706794865</v>
+        <v>0.0187674376383687</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0518496373836091</v>
+        <v>0.05322326829159595</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -2325,19 +2325,19 @@
         <v>7989</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3808</v>
+        <v>3908</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17462</v>
+        <v>17313</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.04286518979561092</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02043121873590638</v>
+        <v>0.0209714599058085</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09369407367156479</v>
+        <v>0.09289471307502017</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -2346,19 +2346,19 @@
         <v>24612</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>15371</v>
+        <v>15401</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>38004</v>
+        <v>37832</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03492351238323516</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02181038046851663</v>
+        <v>0.02185355076456996</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0539257124410696</v>
+        <v>0.05368271266643961</v>
       </c>
     </row>
     <row r="27">
@@ -2375,19 +2375,19 @@
         <v>258475</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>237450</v>
+        <v>233461</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>284726</v>
+        <v>281604</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.4986278738526984</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4580696377367582</v>
+        <v>0.4503743837953063</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5492691732859576</v>
+        <v>0.5432465404656422</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>63</v>
@@ -2396,19 +2396,19 @@
         <v>66659</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>54605</v>
+        <v>53058</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>80723</v>
+        <v>80847</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3576705274257529</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2929916387518068</v>
+        <v>0.2846914129338383</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4331374533100448</v>
+        <v>0.4338008496423515</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>303</v>
@@ -2417,19 +2417,19 @@
         <v>325133</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>295705</v>
+        <v>299575</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>352826</v>
+        <v>353543</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4613516263295617</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4195942748518813</v>
+        <v>0.4250855294019102</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5006458214635662</v>
+        <v>0.5016640939579495</v>
       </c>
     </row>
     <row r="28">
@@ -2761,19 +2761,19 @@
         <v>51072</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39845</v>
+        <v>39413</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64868</v>
+        <v>65012</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3016606419533415</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2353506956075548</v>
+        <v>0.2327991098250222</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3831506750504589</v>
+        <v>0.384001623326655</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -2782,19 +2782,19 @@
         <v>23817</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16354</v>
+        <v>17325</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31882</v>
+        <v>32882</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3258508106657609</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2237450467948391</v>
+        <v>0.2370340635438488</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4361981601698565</v>
+        <v>0.4498722696595417</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>70</v>
@@ -2803,19 +2803,19 @@
         <v>74889</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60446</v>
+        <v>59979</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90672</v>
+        <v>89233</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3089548925881266</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2493698371748303</v>
+        <v>0.2474440928729273</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.374068420841327</v>
+        <v>0.3681336497108681</v>
       </c>
     </row>
     <row r="5">
@@ -2832,19 +2832,19 @@
         <v>5425</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1929</v>
+        <v>1913</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12206</v>
+        <v>12632</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03204059504860522</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01139407466252786</v>
+        <v>0.01129745026872557</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07209493033413931</v>
+        <v>0.07461495275738075</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -2853,19 +2853,19 @@
         <v>4026</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11037</v>
+        <v>10992</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0550752622091507</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01318240523470521</v>
+        <v>0.0131295797304927</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.151004067141208</v>
+        <v>0.1503860451495095</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -2874,19 +2874,19 @@
         <v>9450</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4060</v>
+        <v>4222</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>18553</v>
+        <v>18009</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03898641826940851</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01674808533492973</v>
+        <v>0.01741802347851071</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07653958554837663</v>
+        <v>0.07429641838541294</v>
       </c>
     </row>
     <row r="6">
@@ -2903,19 +2903,19 @@
         <v>3051</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8956</v>
+        <v>9155</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01801821436947822</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005786765602486332</v>
+        <v>0.005724885894699521</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05289956375624714</v>
+        <v>0.0540737319298274</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -2937,19 +2937,19 @@
         <v>3051</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>971</v>
+        <v>987</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8243</v>
+        <v>8241</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01258504136581977</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004004886682224163</v>
+        <v>0.004072305808865324</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03400810476551911</v>
+        <v>0.03399777811152723</v>
       </c>
     </row>
     <row r="7">
@@ -2966,19 +2966,19 @@
         <v>109755</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96115</v>
+        <v>95610</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>121532</v>
+        <v>122639</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.648280548628575</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5677160610229446</v>
+        <v>0.5647295914059064</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.717839883386872</v>
+        <v>0.7243799661946437</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -2987,19 +2987,19 @@
         <v>45249</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36168</v>
+        <v>35838</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52887</v>
+        <v>52512</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6190739271250884</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4948401435931452</v>
+        <v>0.4903248795628833</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7235777560343922</v>
+        <v>0.7184407607860794</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>147</v>
@@ -3008,19 +3008,19 @@
         <v>155004</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>138502</v>
+        <v>140166</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169626</v>
+        <v>169697</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6394736477766451</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5713928458588395</v>
+        <v>0.5782589399256091</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6997954237057592</v>
+        <v>0.7000902709470572</v>
       </c>
     </row>
     <row r="8">
@@ -3112,19 +3112,19 @@
         <v>51318</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>38952</v>
+        <v>39778</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>63496</v>
+        <v>65116</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2939988047415288</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2231549404022869</v>
+        <v>0.2278873331298074</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3637699407836861</v>
+        <v>0.3730480471008281</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>27</v>
@@ -3133,19 +3133,19 @@
         <v>27594</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>19218</v>
+        <v>18999</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35155</v>
+        <v>35055</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4246182840170565</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.295729790297906</v>
+        <v>0.2923568455544243</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5409660538146375</v>
+        <v>0.5394328745833884</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>76</v>
@@ -3154,19 +3154,19 @@
         <v>78912</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>65070</v>
+        <v>64234</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>95321</v>
+        <v>93233</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3294353106345577</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2716482188091537</v>
+        <v>0.2681602249703535</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3979390030718289</v>
+        <v>0.389222446113729</v>
       </c>
     </row>
     <row r="10">
@@ -3183,19 +3183,19 @@
         <v>6215</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2100</v>
+        <v>2969</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11825</v>
+        <v>13516</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03560507106627341</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01203064492265993</v>
+        <v>0.01700743340934032</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0677436738675718</v>
+        <v>0.07743149392248286</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6952</v>
+        <v>6575</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03273096550466389</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.106982293910264</v>
+        <v>0.1011710151743151</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -3225,19 +3225,19 @@
         <v>8342</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3203</v>
+        <v>4091</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15410</v>
+        <v>15855</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03482533852380687</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01337135273034318</v>
+        <v>0.0170795391163886</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06433339503732888</v>
+        <v>0.06619038458701842</v>
       </c>
     </row>
     <row r="11">
@@ -3254,19 +3254,19 @@
         <v>5121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1998</v>
+        <v>2009</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10581</v>
+        <v>11295</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0293399677871448</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01144703017627841</v>
+        <v>0.01150791263506807</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06061727064800286</v>
+        <v>0.0647105265702355</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6420</v>
+        <v>5990</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02929924828495898</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09879344807575237</v>
+        <v>0.09216994775366115</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -3296,19 +3296,19 @@
         <v>7025</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2998</v>
+        <v>3018</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>14143</v>
+        <v>15215</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02932892076041362</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01251703242802277</v>
+        <v>0.0125979688054944</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05904365073319845</v>
+        <v>0.06351745532005183</v>
       </c>
     </row>
     <row r="12">
@@ -3325,19 +3325,19 @@
         <v>111897</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>99720</v>
+        <v>98199</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>125577</v>
+        <v>124710</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.641056156405053</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5712940521408657</v>
+        <v>0.5625794226132323</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7194296147902042</v>
+        <v>0.7144636767215884</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>32</v>
@@ -3346,19 +3346,19 @@
         <v>33360</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25148</v>
+        <v>25811</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>41979</v>
+        <v>42075</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5133515021933206</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3869764264391567</v>
+        <v>0.3971840673618712</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6459729879624361</v>
+        <v>0.6474508144136356</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>135</v>
@@ -3367,19 +3367,19 @@
         <v>145257</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>129816</v>
+        <v>129630</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>159726</v>
+        <v>159501</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6064104300812218</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5419493736544769</v>
+        <v>0.5411724752959818</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6668127538945905</v>
+        <v>0.6658740529030944</v>
       </c>
     </row>
     <row r="13">
@@ -3471,19 +3471,19 @@
         <v>34610</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25143</v>
+        <v>24579</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45326</v>
+        <v>45408</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2433453988644708</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1767809780717422</v>
+        <v>0.1728141702108803</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3186892206606195</v>
+        <v>0.3192649305456925</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -3492,19 +3492,19 @@
         <v>19460</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12538</v>
+        <v>12488</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26991</v>
+        <v>26101</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3647992997126496</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2350313878988499</v>
+        <v>0.2340987296773545</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5059752694527271</v>
+        <v>0.4893041282584749</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>52</v>
@@ -3513,19 +3513,19 @@
         <v>54070</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>41559</v>
+        <v>42352</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>68364</v>
+        <v>67362</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2764734939881762</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2124988374519758</v>
+        <v>0.2165579543175918</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3495621365994266</v>
+        <v>0.3444383215622915</v>
       </c>
     </row>
     <row r="15">
@@ -3542,19 +3542,19 @@
         <v>5415</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1938</v>
+        <v>1977</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12346</v>
+        <v>12039</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03807013266012483</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01362893182903223</v>
+        <v>0.01389956919711051</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08680640857569305</v>
+        <v>0.08464710041304507</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -3576,19 +3576,19 @@
         <v>5415</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1957</v>
+        <v>2027</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11414</v>
+        <v>12180</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02768602010936182</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01000885877999121</v>
+        <v>0.01036557612047038</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05836031516925955</v>
+        <v>0.06228136816007076</v>
       </c>
     </row>
     <row r="16">
@@ -3605,19 +3605,19 @@
         <v>3754</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1060</v>
+        <v>1043</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10432</v>
+        <v>10383</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02639136982668494</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007450485124986511</v>
+        <v>0.007330886495452765</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07335007620539515</v>
+        <v>0.07300195515430086</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5760</v>
+        <v>6001</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01964745333760353</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1079845887908927</v>
+        <v>0.1124974624956987</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -3647,19 +3647,19 @@
         <v>4802</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1118</v>
+        <v>1074</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11336</v>
+        <v>11898</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02455188088975991</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005714424996800495</v>
+        <v>0.005493458192330694</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05796182676427594</v>
+        <v>0.06083749725343629</v>
       </c>
     </row>
     <row r="17">
@@ -3676,19 +3676,19 @@
         <v>98448</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>86993</v>
+        <v>87510</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>109126</v>
+        <v>109573</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6921930986487195</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6116552676635221</v>
+        <v>0.6152888914053035</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7672701770851323</v>
+        <v>0.7704160123511613</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -3697,19 +3697,19 @@
         <v>32836</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>25196</v>
+        <v>25986</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>39958</v>
+        <v>39559</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6155532469497469</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4723248775126179</v>
+        <v>0.4871408346505633</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7490698145910313</v>
+        <v>0.7415788939022379</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>124</v>
@@ -3718,19 +3718,19 @@
         <v>131285</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>117729</v>
+        <v>118640</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>145415</v>
+        <v>143912</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6712886050127022</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6019765758938013</v>
+        <v>0.606635276696273</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7435388865262297</v>
+        <v>0.7358566710992085</v>
       </c>
     </row>
     <row r="18">
@@ -3822,19 +3822,19 @@
         <v>39921</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30554</v>
+        <v>29162</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51013</v>
+        <v>51333</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3302427875225165</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.252752309596131</v>
+        <v>0.2412397933317903</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4220026446543462</v>
+        <v>0.4246443606826464</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>19</v>
@@ -3843,19 +3843,19 @@
         <v>20673</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13901</v>
+        <v>14099</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27727</v>
+        <v>27674</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4636237228186082</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3117367240987903</v>
+        <v>0.316185906561325</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.621812321478891</v>
+        <v>0.6206165058935804</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>55</v>
@@ -3864,19 +3864,19 @@
         <v>60595</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>49134</v>
+        <v>48553</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>74350</v>
+        <v>74588</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3661853781095493</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2969295015467559</v>
+        <v>0.2934134832284935</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4493143269758809</v>
+        <v>0.4507505598959018</v>
       </c>
     </row>
     <row r="20">
@@ -3893,19 +3893,19 @@
         <v>6220</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2145</v>
+        <v>2078</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13271</v>
+        <v>14196</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05145786580289657</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01774629419074056</v>
+        <v>0.01719270373296386</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1097818733880117</v>
+        <v>0.1174381800661548</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -3914,19 +3914,19 @@
         <v>3870</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1002</v>
+        <v>976</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9513</v>
+        <v>8969</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08677910258468317</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02247613605189657</v>
+        <v>0.02188569675503724</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2133451688967686</v>
+        <v>0.2011335556169396</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -3935,19 +3935,19 @@
         <v>10090</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5037</v>
+        <v>5025</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19632</v>
+        <v>18798</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06097599333631925</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03043689491792407</v>
+        <v>0.03036704417210673</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.118643184365781</v>
+        <v>0.1135983763371006</v>
       </c>
     </row>
     <row r="21">
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6906</v>
+        <v>7634</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01759776307045159</v>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05713181164450082</v>
+        <v>0.06315288497532984</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6505</v>
+        <v>7545</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0128556371295535</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03930852056273653</v>
+        <v>0.04559667008363393</v>
       </c>
     </row>
     <row r="22">
@@ -4027,19 +4027,19 @@
         <v>72615</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61597</v>
+        <v>61428</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>84063</v>
+        <v>83801</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6007015836041353</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5095514612693786</v>
+        <v>0.5081529316122197</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6954012277871556</v>
+        <v>0.693231834685386</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -4048,19 +4048,19 @@
         <v>20048</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>13109</v>
+        <v>13636</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27340</v>
+        <v>27206</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4495971745967086</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2939745145618224</v>
+        <v>0.3058117156792525</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6131261838819657</v>
+        <v>0.6101335615567223</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>85</v>
@@ -4069,19 +4069,19 @@
         <v>92663</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>78819</v>
+        <v>81057</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>104800</v>
+        <v>107987</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.559982991424578</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4763201224759481</v>
+        <v>0.4898468964441293</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6333288104581903</v>
+        <v>0.652588151681378</v>
       </c>
     </row>
     <row r="23">
@@ -4173,19 +4173,19 @@
         <v>176921</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>152930</v>
+        <v>155143</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>198742</v>
+        <v>200670</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2914850093397864</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2519590215617645</v>
+        <v>0.255604580210264</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3274370498927138</v>
+        <v>0.3306139995174379</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>89</v>
@@ -4194,19 +4194,19 @@
         <v>91544</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>77826</v>
+        <v>76734</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>108405</v>
+        <v>106643</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3878798145078018</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3297561220374051</v>
+        <v>0.3251309618676408</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4593226084458019</v>
+        <v>0.45185396431104</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>253</v>
@@ -4215,19 +4215,19 @@
         <v>268465</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>239829</v>
+        <v>241377</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>298011</v>
+        <v>296821</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3184730734050487</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2845035996027725</v>
+        <v>0.2863400751552441</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.353523639976912</v>
+        <v>0.3521119916048642</v>
       </c>
     </row>
     <row r="25">
@@ -4244,19 +4244,19 @@
         <v>23274</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14570</v>
+        <v>15267</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>35288</v>
+        <v>35109</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03834571250177329</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02400494348829693</v>
+        <v>0.02515327425192599</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05813889553146103</v>
+        <v>0.05784378296020667</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -4265,19 +4265,19 @@
         <v>10022</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4852</v>
+        <v>4960</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18428</v>
+        <v>18556</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04246441616562985</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02055921500355215</v>
+        <v>0.02101695436154778</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0780823897821295</v>
+        <v>0.07862378882145479</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -4286,19 +4286,19 @@
         <v>33296</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22816</v>
+        <v>23732</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>48248</v>
+        <v>47693</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03949884350455137</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02706583267113691</v>
+        <v>0.02815245996483043</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05723604029702056</v>
+        <v>0.05657667046660146</v>
       </c>
     </row>
     <row r="26">
@@ -4315,19 +4315,19 @@
         <v>14053</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7834</v>
+        <v>8190</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24058</v>
+        <v>22876</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02315243227342301</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01290725162448846</v>
+        <v>0.01349361966943963</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03963648942754325</v>
+        <v>0.03768979683002249</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3</v>
@@ -4336,19 +4336,19 @@
         <v>2952</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>911</v>
+        <v>928</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7997</v>
+        <v>7948</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0125082987311085</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003861261670144</v>
+        <v>0.003932385643147558</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.033884229816899</v>
+        <v>0.03367776675506108</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -4357,19 +4357,19 @@
         <v>17005</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10108</v>
+        <v>10371</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27343</v>
+        <v>27350</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0201723488813928</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01199117681143364</v>
+        <v>0.01230244671457479</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0324360817883158</v>
+        <v>0.03244410729637646</v>
       </c>
     </row>
     <row r="27">
@@ -4386,19 +4386,19 @@
         <v>392715</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>369255</v>
+        <v>367004</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>415870</v>
+        <v>417451</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6470168458850173</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6083657159578166</v>
+        <v>0.6046558278926376</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6851646509801029</v>
+        <v>0.6877702583141865</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>130</v>
@@ -4407,19 +4407,19 @@
         <v>131493</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>115377</v>
+        <v>117079</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>146017</v>
+        <v>146631</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.5571474705954598</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4888629767795534</v>
+        <v>0.4960749031536094</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6186881340250567</v>
+        <v>0.6212902909892501</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>491</v>
@@ -4428,19 +4428,19 @@
         <v>524208</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>492643</v>
+        <v>495958</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>553020</v>
+        <v>552763</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6218557342090072</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.584411105542503</v>
+        <v>0.5883432484769792</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6560345265520737</v>
+        <v>0.655729491035704</v>
       </c>
     </row>
     <row r="28">
